--- a/Code/Results/Cases/Case_4_98/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_98/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.93969530373064</v>
+        <v>21.32446187183548</v>
       </c>
       <c r="C2">
-        <v>13.39710216000601</v>
+        <v>8.112591183731475</v>
       </c>
       <c r="D2">
-        <v>8.114991978245948</v>
+        <v>12.80886201729186</v>
       </c>
       <c r="E2">
-        <v>7.467449020787699</v>
+        <v>12.49517531015564</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>51.52072895187933</v>
+        <v>62.74941152461878</v>
       </c>
       <c r="H2">
-        <v>15.52601102908162</v>
+        <v>22.66345704985719</v>
       </c>
       <c r="I2">
-        <v>24.55442843865819</v>
+        <v>35.0819008788039</v>
       </c>
       <c r="J2">
-        <v>5.269671855906051</v>
+        <v>7.82328645114011</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.114328266871778</v>
+        <v>13.25226449292265</v>
       </c>
       <c r="M2">
-        <v>13.92661967475872</v>
+        <v>19.8944104374259</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.64747824203675</v>
+        <v>21.05514656555827</v>
       </c>
       <c r="C3">
-        <v>12.47736854502763</v>
+        <v>7.732969483734005</v>
       </c>
       <c r="D3">
-        <v>8.026520679367476</v>
+        <v>12.82569295084351</v>
       </c>
       <c r="E3">
-        <v>7.521058033926859</v>
+        <v>12.51664045950034</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>50.11408984732682</v>
+        <v>62.66108474500914</v>
       </c>
       <c r="H3">
-        <v>15.37724256481967</v>
+        <v>22.6990681736813</v>
       </c>
       <c r="I3">
-        <v>24.41040319790764</v>
+        <v>35.15168699255292</v>
       </c>
       <c r="J3">
-        <v>5.220545080939056</v>
+        <v>7.809683811305415</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.010012650442256</v>
+        <v>13.26644612982795</v>
       </c>
       <c r="M3">
-        <v>13.40475341965075</v>
+        <v>19.854263752034</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.8217385195157</v>
+        <v>20.89325444276105</v>
       </c>
       <c r="C4">
-        <v>11.88270394037379</v>
+        <v>7.492153797742179</v>
       </c>
       <c r="D4">
-        <v>7.976604634661571</v>
+        <v>12.83800291574371</v>
       </c>
       <c r="E4">
-        <v>7.55532753881907</v>
+        <v>12.53057663289421</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>49.28554222967893</v>
+        <v>62.62349514967348</v>
       </c>
       <c r="H4">
-        <v>15.29777697795829</v>
+        <v>22.72522180382967</v>
       </c>
       <c r="I4">
-        <v>24.34252675885941</v>
+        <v>35.2014028153942</v>
       </c>
       <c r="J4">
-        <v>5.190178798497817</v>
+        <v>7.801111214766101</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.949733734700652</v>
+        <v>13.27705116190803</v>
       </c>
       <c r="M4">
-        <v>13.08238565827343</v>
+        <v>19.83322077822097</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.47730829352309</v>
+        <v>20.82823333698515</v>
       </c>
       <c r="C5">
-        <v>11.63275393734775</v>
+        <v>7.392227137434919</v>
       </c>
       <c r="D5">
-        <v>7.957351613638322</v>
+        <v>12.84351593939942</v>
       </c>
       <c r="E5">
-        <v>7.569635402825797</v>
+        <v>12.53644645946455</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>48.95679688273592</v>
+        <v>62.61236139045971</v>
       </c>
       <c r="H5">
-        <v>15.26827514071594</v>
+        <v>22.73695523306187</v>
       </c>
       <c r="I5">
-        <v>24.31980727649503</v>
+        <v>35.22338350226163</v>
       </c>
       <c r="J5">
-        <v>5.177747317875384</v>
+        <v>7.797562341402006</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.926110242926939</v>
+        <v>13.28185012622998</v>
       </c>
       <c r="M5">
-        <v>12.9506945645009</v>
+        <v>19.82555891883084</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.41964357757592</v>
+        <v>20.81749636086799</v>
       </c>
       <c r="C6">
-        <v>11.59078723965612</v>
+        <v>7.375530963924091</v>
       </c>
       <c r="D6">
-        <v>7.954219792628138</v>
+        <v>12.84446135978324</v>
       </c>
       <c r="E6">
-        <v>7.572031986465144</v>
+        <v>12.53743267355703</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>48.90274770334909</v>
+        <v>62.61076526088497</v>
       </c>
       <c r="H6">
-        <v>15.26354725699046</v>
+        <v>22.738968440947</v>
       </c>
       <c r="I6">
-        <v>24.31632647362223</v>
+        <v>35.22713715718968</v>
       </c>
       <c r="J6">
-        <v>5.175679471797229</v>
+        <v>7.796969702798175</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.922244154650247</v>
+        <v>13.28267582433171</v>
       </c>
       <c r="M6">
-        <v>12.92881297800638</v>
+        <v>19.82434200436262</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.81712523902531</v>
+        <v>20.89237359071476</v>
       </c>
       <c r="C7">
-        <v>11.87936399184228</v>
+        <v>7.490813194074971</v>
       </c>
       <c r="D7">
-        <v>7.976340602403105</v>
+        <v>12.83807525585408</v>
       </c>
       <c r="E7">
-        <v>7.555519108588834</v>
+        <v>12.53065502253439</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>49.28107256977844</v>
+        <v>62.62332805794729</v>
       </c>
       <c r="H7">
-        <v>15.29736758195976</v>
+        <v>22.72537569367446</v>
       </c>
       <c r="I7">
-        <v>24.34220065209171</v>
+        <v>35.20169229381116</v>
       </c>
       <c r="J7">
-        <v>5.190011381527501</v>
+        <v>7.801063578040206</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.94941134198766</v>
+        <v>13.27711394954098</v>
       </c>
       <c r="M7">
-        <v>13.08061070557555</v>
+        <v>19.83311374199132</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.50094000243921</v>
+        <v>21.23092996649845</v>
       </c>
       <c r="C8">
-        <v>13.08613703633307</v>
+        <v>7.9833850724055</v>
       </c>
       <c r="D8">
-        <v>8.083561068776071</v>
+        <v>12.81425517030226</v>
       </c>
       <c r="E8">
-        <v>7.485653999585364</v>
+        <v>12.50241978565299</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>51.02846483666773</v>
+        <v>62.71550275068529</v>
       </c>
       <c r="H8">
-        <v>15.47218688486817</v>
+        <v>22.67484417382032</v>
       </c>
       <c r="I8">
-        <v>24.5003646634624</v>
+        <v>35.10453460040974</v>
       </c>
       <c r="J8">
-        <v>5.252771023371247</v>
+        <v>7.818642016539829</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.077573032466967</v>
+        <v>13.25676064450275</v>
       </c>
       <c r="M8">
-        <v>13.74717516571301</v>
+        <v>19.879823126264</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.54130211465512</v>
+        <v>21.91881941562163</v>
       </c>
       <c r="C9">
-        <v>15.21940778140924</v>
+        <v>8.882426193638848</v>
       </c>
       <c r="D9">
-        <v>8.329640868269806</v>
+        <v>12.78322718713144</v>
       </c>
       <c r="E9">
-        <v>7.359275387262008</v>
+        <v>12.45303024554167</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>54.73155043752287</v>
+        <v>63.02818761756927</v>
       </c>
       <c r="H9">
-        <v>15.91396087592102</v>
+        <v>22.60989092536351</v>
       </c>
       <c r="I9">
-        <v>24.98390535887077</v>
+        <v>34.96873661515928</v>
       </c>
       <c r="J9">
-        <v>5.374555135717419</v>
+        <v>7.851365397165297</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.359169517381135</v>
+        <v>13.23189296051088</v>
       </c>
       <c r="M9">
-        <v>15.03278119191759</v>
+        <v>19.9997392738207</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.74313764148165</v>
+        <v>22.43404326371508</v>
       </c>
       <c r="C10">
-        <v>16.65120211222623</v>
+        <v>9.495971081509785</v>
       </c>
       <c r="D10">
-        <v>8.533487666208485</v>
+        <v>12.76999830429415</v>
       </c>
       <c r="E10">
-        <v>7.272749022604136</v>
+        <v>12.4203574294197</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>57.61950579135032</v>
+        <v>63.33793689455374</v>
       </c>
       <c r="H10">
-        <v>16.30534853890479</v>
+        <v>22.58312595171897</v>
       </c>
       <c r="I10">
-        <v>25.45916165639196</v>
+        <v>34.90264618215532</v>
       </c>
       <c r="J10">
-        <v>5.463758683960389</v>
+        <v>7.874345715386405</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.58506167673065</v>
+        <v>13.22277823072478</v>
       </c>
       <c r="M10">
-        <v>15.95764360244602</v>
+        <v>20.10465982297801</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.71143708758279</v>
+        <v>22.66955314599954</v>
       </c>
       <c r="C11">
-        <v>17.27476798294319</v>
+        <v>9.76389343348168</v>
       </c>
       <c r="D11">
-        <v>8.631510322015789</v>
+        <v>12.76605734223747</v>
       </c>
       <c r="E11">
-        <v>7.234727158863384</v>
+        <v>12.40627167333168</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>58.97022133547401</v>
+        <v>63.49605629075417</v>
       </c>
       <c r="H11">
-        <v>16.49935088414777</v>
+        <v>22.57552621452525</v>
       </c>
       <c r="I11">
-        <v>25.70459481541</v>
+        <v>34.87995457694138</v>
       </c>
       <c r="J11">
-        <v>5.50441696208667</v>
+        <v>7.884570449475121</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.692103248689467</v>
+        <v>13.22061468917521</v>
       </c>
       <c r="M11">
-        <v>16.37322089134407</v>
+        <v>20.15593403723379</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.07200114498877</v>
+        <v>22.75881404418953</v>
       </c>
       <c r="C12">
-        <v>17.50705322573748</v>
+        <v>9.86367528553737</v>
       </c>
       <c r="D12">
-        <v>8.669415498754216</v>
+        <v>12.76486344733931</v>
       </c>
       <c r="E12">
-        <v>7.220519521994791</v>
+        <v>12.40104902762288</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>59.48714371315828</v>
+        <v>63.55838625879366</v>
       </c>
       <c r="H12">
-        <v>16.57523416825442</v>
+        <v>22.57330800603722</v>
       </c>
       <c r="I12">
-        <v>25.80200956375953</v>
+        <v>34.87242650684172</v>
       </c>
       <c r="J12">
-        <v>5.519837783499611</v>
+        <v>7.888409369377845</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.733268486624658</v>
+        <v>13.22007992693212</v>
       </c>
       <c r="M12">
-        <v>16.52980700824604</v>
+        <v>20.17584978425611</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.99461596600255</v>
+        <v>22.73958794896699</v>
       </c>
       <c r="C13">
-        <v>17.45719498044375</v>
+        <v>9.842260895165646</v>
       </c>
       <c r="D13">
-        <v>8.661216540599161</v>
+        <v>12.76510730397604</v>
       </c>
       <c r="E13">
-        <v>7.223570955096692</v>
+        <v>12.40216887370126</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>59.37557070348048</v>
+        <v>63.5448536464286</v>
       </c>
       <c r="H13">
-        <v>16.55878170145335</v>
+        <v>22.57375637559966</v>
       </c>
       <c r="I13">
-        <v>25.78082610728241</v>
+        <v>34.87400038917567</v>
       </c>
       <c r="J13">
-        <v>5.516515319655353</v>
+        <v>7.887584055703775</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.724374471612707</v>
+        <v>13.22018245379593</v>
       </c>
       <c r="M13">
-        <v>16.49611867926421</v>
+        <v>20.17153853829282</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.741222289985</v>
+        <v>22.67689559902898</v>
       </c>
       <c r="C14">
-        <v>17.29395440786083</v>
+        <v>9.772136448100689</v>
       </c>
       <c r="D14">
-        <v>8.634612892501146</v>
+        <v>12.76595313964065</v>
       </c>
       <c r="E14">
-        <v>7.233554483754843</v>
+        <v>12.40583977455995</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>59.01263893857206</v>
+        <v>63.50113517883794</v>
       </c>
       <c r="H14">
-        <v>16.5055446304812</v>
+        <v>22.57533049240548</v>
       </c>
       <c r="I14">
-        <v>25.7125179155527</v>
+        <v>34.8793138746461</v>
       </c>
       <c r="J14">
-        <v>5.505685071544262</v>
+        <v>7.884886940495536</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.695477192081514</v>
+        <v>13.22056499544146</v>
       </c>
       <c r="M14">
-        <v>16.38611919767475</v>
+        <v>20.15756257302596</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.58522117256344</v>
+        <v>22.63850246338419</v>
       </c>
       <c r="C15">
-        <v>17.193468639557</v>
+        <v>9.728963342748411</v>
       </c>
       <c r="D15">
-        <v>8.618420569985759</v>
+        <v>12.76651009944156</v>
       </c>
       <c r="E15">
-        <v>7.239694418999036</v>
+        <v>12.40810279188277</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>58.79104555864353</v>
+        <v>63.47467517649517</v>
       </c>
       <c r="H15">
-        <v>16.47325421099156</v>
+        <v>22.5763806341706</v>
       </c>
       <c r="I15">
-        <v>25.67126812847426</v>
+        <v>34.88270732601207</v>
       </c>
       <c r="J15">
-        <v>5.499054830732303</v>
+        <v>7.883230586010647</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.677859455044874</v>
+        <v>13.22083634729926</v>
       </c>
       <c r="M15">
-        <v>16.31863837667577</v>
+        <v>20.14906659422347</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.67899208285742</v>
+        <v>22.41866766684394</v>
       </c>
       <c r="C16">
-        <v>16.60990415267309</v>
+        <v>9.478230762920177</v>
       </c>
       <c r="D16">
-        <v>8.527190218999298</v>
+        <v>12.77029763381332</v>
       </c>
       <c r="E16">
-        <v>7.275260602861888</v>
+        <v>12.42129356915428</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>57.53198571990254</v>
+        <v>63.32794802952603</v>
       </c>
       <c r="H16">
-        <v>16.29300157117971</v>
+        <v>22.58371483681562</v>
       </c>
       <c r="I16">
-        <v>25.4437331770593</v>
+        <v>34.90427789271649</v>
       </c>
       <c r="J16">
-        <v>5.461104233912937</v>
+        <v>7.873672892947897</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.578153634438118</v>
+        <v>13.2229594730121</v>
       </c>
       <c r="M16">
-        <v>15.93037674790618</v>
+        <v>20.10137939019259</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.11197569805853</v>
+        <v>22.28403551701279</v>
       </c>
       <c r="C17">
-        <v>16.24489514256762</v>
+        <v>9.321499397300027</v>
       </c>
       <c r="D17">
-        <v>8.472595651417333</v>
+        <v>12.77315300394437</v>
       </c>
       <c r="E17">
-        <v>7.297420759259235</v>
+        <v>12.42958444281527</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>56.76912311602747</v>
+        <v>63.24233018053439</v>
       </c>
       <c r="H17">
-        <v>16.1865955382406</v>
+        <v>22.5893873676048</v>
       </c>
       <c r="I17">
-        <v>25.311824795951</v>
+        <v>34.91940251644923</v>
       </c>
       <c r="J17">
-        <v>5.437851735143548</v>
+        <v>7.867750861451432</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.518093716821163</v>
+        <v>13.22476938583304</v>
       </c>
       <c r="M17">
-        <v>15.69083327305515</v>
+        <v>20.0730256062322</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.78171910957755</v>
+        <v>22.20671016707046</v>
       </c>
       <c r="C18">
-        <v>16.03232868617192</v>
+        <v>9.230302326887978</v>
       </c>
       <c r="D18">
-        <v>8.441690720337654</v>
+        <v>12.77499084513848</v>
       </c>
       <c r="E18">
-        <v>7.310292890609436</v>
+        <v>12.43442632100259</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>56.33381311058654</v>
+        <v>63.1947067625448</v>
       </c>
       <c r="H18">
-        <v>16.12688785672667</v>
+        <v>22.59308067062052</v>
       </c>
       <c r="I18">
-        <v>25.23868971749642</v>
+        <v>34.92879556260197</v>
       </c>
       <c r="J18">
-        <v>5.424484076855749</v>
+        <v>7.864323100083766</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.483950789175111</v>
+        <v>13.22599707157015</v>
       </c>
       <c r="M18">
-        <v>15.55257075642588</v>
+        <v>20.05705163146407</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.66918677957091</v>
+        <v>22.18055088067363</v>
       </c>
       <c r="C19">
-        <v>15.9599026013017</v>
+        <v>9.19924655625727</v>
       </c>
       <c r="D19">
-        <v>8.431311385157171</v>
+        <v>12.77564668963878</v>
       </c>
       <c r="E19">
-        <v>7.314672916297582</v>
+        <v>12.43607828135168</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>56.18701793864857</v>
+        <v>63.17886141495155</v>
       </c>
       <c r="H19">
-        <v>16.10692484733541</v>
+        <v>22.59440506268962</v>
       </c>
       <c r="I19">
-        <v>25.21438915056114</v>
+        <v>34.93209489810533</v>
       </c>
       <c r="J19">
-        <v>5.41995877778543</v>
+        <v>7.863158815568857</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.472459214249671</v>
+        <v>13.22644482265786</v>
       </c>
       <c r="M19">
-        <v>15.50567616157254</v>
+        <v>20.05170085648105</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.17276118118616</v>
+        <v>22.29835641587486</v>
       </c>
       <c r="C20">
-        <v>16.28402141940663</v>
+        <v>9.338292838488444</v>
       </c>
       <c r="D20">
-        <v>8.478355786430928</v>
+        <v>12.77282881174008</v>
       </c>
       <c r="E20">
-        <v>7.295048728346114</v>
+        <v>12.42869429384463</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>56.84997156215336</v>
+        <v>63.25127665108469</v>
       </c>
       <c r="H20">
-        <v>16.19776711933908</v>
+        <v>22.58873893747052</v>
       </c>
       <c r="I20">
-        <v>25.32558167228062</v>
+        <v>34.91772063921773</v>
       </c>
       <c r="J20">
-        <v>5.440326235525851</v>
+        <v>7.868383503862421</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.524445499782122</v>
+        <v>13.22455740179148</v>
       </c>
       <c r="M20">
-        <v>15.71638351779236</v>
+        <v>20.07600938290478</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.8158144852876</v>
+        <v>22.69530839705594</v>
       </c>
       <c r="C21">
-        <v>17.3420052463261</v>
+        <v>9.792779619354288</v>
       </c>
       <c r="D21">
-        <v>8.642405476397172</v>
+        <v>12.76569659908864</v>
       </c>
       <c r="E21">
-        <v>7.230616928172717</v>
+        <v>12.40475852421781</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>59.11909191821159</v>
+        <v>63.51390995439999</v>
       </c>
       <c r="H21">
-        <v>16.52111497242664</v>
+        <v>22.5748502217275</v>
       </c>
       <c r="I21">
-        <v>25.73245803246061</v>
+        <v>34.87772424438479</v>
       </c>
       <c r="J21">
-        <v>5.508865401926558</v>
+        <v>7.885680043414564</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.703947760098444</v>
+        <v>13.22044491702325</v>
       </c>
       <c r="M21">
-        <v>16.4184502113244</v>
+        <v>20.16165418824723</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.85412881624522</v>
+        <v>22.95515877104501</v>
       </c>
       <c r="C22">
-        <v>18.01112277834479</v>
+        <v>10.08002924825255</v>
       </c>
       <c r="D22">
-        <v>8.754217870061828</v>
+        <v>12.76277478943448</v>
       </c>
       <c r="E22">
-        <v>7.189616029034816</v>
+        <v>12.38976379486862</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.63389327099321</v>
+        <v>63.69984462662306</v>
       </c>
       <c r="H22">
-        <v>16.74660441171669</v>
+        <v>22.56961863654962</v>
       </c>
       <c r="I22">
-        <v>26.02459165401268</v>
+        <v>34.85779226099267</v>
       </c>
       <c r="J22">
-        <v>5.553809502301094</v>
+        <v>7.896792177624759</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.824950440650833</v>
+        <v>13.21941525055531</v>
       </c>
       <c r="M22">
-        <v>16.87271967673343</v>
+        <v>20.22053311408443</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.3031474157983</v>
+        <v>22.81646075324307</v>
       </c>
       <c r="C23">
-        <v>17.65599343550819</v>
+        <v>9.927633102968626</v>
       </c>
       <c r="D23">
-        <v>8.694111675005068</v>
+        <v>12.76417513996533</v>
       </c>
       <c r="E23">
-        <v>7.211398186381262</v>
+        <v>12.39770755624755</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.82244430550553</v>
+        <v>63.5993085191459</v>
       </c>
       <c r="H23">
-        <v>16.62491720642211</v>
+        <v>22.57205849608692</v>
       </c>
       <c r="I23">
-        <v>25.86618282425288</v>
+        <v>34.86786092504083</v>
       </c>
       <c r="J23">
-        <v>5.529803461007555</v>
+        <v>7.890879010603285</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.760025523579161</v>
+        <v>13.21981331041486</v>
       </c>
       <c r="M23">
-        <v>16.63069363985415</v>
+        <v>20.18884613179702</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.1452933811849</v>
+        <v>22.29188169285505</v>
       </c>
       <c r="C24">
-        <v>16.2663409062568</v>
+        <v>9.330703914089629</v>
       </c>
       <c r="D24">
-        <v>8.475750129259445</v>
+        <v>12.77297476773642</v>
       </c>
       <c r="E24">
-        <v>7.296120712320464</v>
+        <v>12.42909649547558</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>56.81340980264472</v>
+        <v>63.24722696808701</v>
       </c>
       <c r="H24">
-        <v>16.19271188877311</v>
+        <v>22.58903074690684</v>
       </c>
       <c r="I24">
-        <v>25.31935379637238</v>
+        <v>34.91847884295084</v>
       </c>
       <c r="J24">
-        <v>5.439207513263959</v>
+        <v>7.868097558204569</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.521572656496378</v>
+        <v>13.22465265680781</v>
       </c>
       <c r="M24">
-        <v>15.70483394849301</v>
+        <v>20.07465939812948</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.74731002408583</v>
+        <v>21.73065377138619</v>
       </c>
       <c r="C25">
-        <v>14.66661498294601</v>
+        <v>8.647077753138593</v>
       </c>
       <c r="D25">
-        <v>8.259111139174328</v>
+        <v>12.78994106596918</v>
       </c>
       <c r="E25">
-        <v>7.39234259049283</v>
+        <v>12.46575455068026</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>53.70040746272411</v>
+        <v>62.92950040733726</v>
       </c>
       <c r="H25">
-        <v>15.7831893897254</v>
+        <v>22.6237918085262</v>
       </c>
       <c r="I25">
-        <v>24.83306992540612</v>
+        <v>34.99958054725432</v>
       </c>
       <c r="J25">
-        <v>5.341698189128398</v>
+        <v>7.842699554496314</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.279696321478411</v>
+        <v>13.23701099610057</v>
       </c>
       <c r="M25">
-        <v>14.68805976899</v>
+        <v>19.96431034052842</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_98/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_98/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.32446187183548</v>
+        <v>20.93969530373063</v>
       </c>
       <c r="C2">
-        <v>8.112591183731475</v>
+        <v>13.3971021600058</v>
       </c>
       <c r="D2">
-        <v>12.80886201729186</v>
+        <v>8.114991978245953</v>
       </c>
       <c r="E2">
-        <v>12.49517531015564</v>
+        <v>7.467449020787704</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>62.74941152461878</v>
+        <v>51.52072895187938</v>
       </c>
       <c r="H2">
-        <v>22.66345704985719</v>
+        <v>15.52601102908159</v>
       </c>
       <c r="I2">
-        <v>35.0819008788039</v>
+        <v>24.55442843865811</v>
       </c>
       <c r="J2">
-        <v>7.82328645114011</v>
+        <v>5.269671855906049</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.25226449292265</v>
+        <v>8.114328266871821</v>
       </c>
       <c r="M2">
-        <v>19.8944104374259</v>
+        <v>13.92661967475872</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.05514656555827</v>
+        <v>19.64747824203674</v>
       </c>
       <c r="C3">
-        <v>7.732969483734005</v>
+        <v>12.47736854502748</v>
       </c>
       <c r="D3">
-        <v>12.82569295084351</v>
+        <v>8.026520679367442</v>
       </c>
       <c r="E3">
-        <v>12.51664045950034</v>
+        <v>7.521058033927057</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>62.66108474500914</v>
+        <v>50.11408984732686</v>
       </c>
       <c r="H3">
-        <v>22.6990681736813</v>
+        <v>15.37724256481966</v>
       </c>
       <c r="I3">
-        <v>35.15168699255292</v>
+        <v>24.41040319790763</v>
       </c>
       <c r="J3">
-        <v>7.809683811305415</v>
+        <v>5.220545080939123</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.26644612982795</v>
+        <v>8.010012650442357</v>
       </c>
       <c r="M3">
-        <v>19.854263752034</v>
+        <v>13.40475341965078</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.89325444276105</v>
+        <v>18.82173851951567</v>
       </c>
       <c r="C4">
-        <v>7.492153797742179</v>
+        <v>11.88270394037385</v>
       </c>
       <c r="D4">
-        <v>12.83800291574371</v>
+        <v>7.976604634661627</v>
       </c>
       <c r="E4">
-        <v>12.53057663289421</v>
+        <v>7.555327538819069</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>62.62349514967348</v>
+        <v>49.28554222967871</v>
       </c>
       <c r="H4">
-        <v>22.72522180382967</v>
+        <v>15.29777697795828</v>
       </c>
       <c r="I4">
-        <v>35.2014028153942</v>
+        <v>24.34252675885935</v>
       </c>
       <c r="J4">
-        <v>7.801111214766101</v>
+        <v>5.190178798497783</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.27705116190803</v>
+        <v>7.949733734700624</v>
       </c>
       <c r="M4">
-        <v>19.83322077822097</v>
+        <v>13.08238565827336</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.82823333698515</v>
+        <v>18.47730829352307</v>
       </c>
       <c r="C5">
-        <v>7.392227137434919</v>
+        <v>11.63275393734795</v>
       </c>
       <c r="D5">
-        <v>12.84351593939942</v>
+        <v>7.957351613638465</v>
       </c>
       <c r="E5">
-        <v>12.53644645946455</v>
+        <v>7.569635402825925</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>62.61236139045971</v>
+        <v>48.95679688273542</v>
       </c>
       <c r="H5">
-        <v>22.73695523306187</v>
+        <v>15.26827514071576</v>
       </c>
       <c r="I5">
-        <v>35.22338350226163</v>
+        <v>24.31980727649482</v>
       </c>
       <c r="J5">
-        <v>7.797562341402006</v>
+        <v>5.177747317875451</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.28185012622998</v>
+        <v>7.926110242926969</v>
       </c>
       <c r="M5">
-        <v>19.82555891883084</v>
+        <v>12.9506945645009</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.81749636086799</v>
+        <v>18.41964357757597</v>
       </c>
       <c r="C6">
-        <v>7.375530963924091</v>
+        <v>11.59078723965598</v>
       </c>
       <c r="D6">
-        <v>12.84446135978324</v>
+        <v>7.954219792628193</v>
       </c>
       <c r="E6">
-        <v>12.53743267355703</v>
+        <v>7.572031986465144</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>62.61076526088497</v>
+        <v>48.90274770334949</v>
       </c>
       <c r="H6">
-        <v>22.738968440947</v>
+        <v>15.26354725699067</v>
       </c>
       <c r="I6">
-        <v>35.22713715718968</v>
+        <v>24.31632647362248</v>
       </c>
       <c r="J6">
-        <v>7.796969702798175</v>
+        <v>5.175679471797091</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.28267582433171</v>
+        <v>7.922244154650346</v>
       </c>
       <c r="M6">
-        <v>19.82434200436262</v>
+        <v>12.92881297800645</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.89237359071476</v>
+        <v>18.81712523902532</v>
       </c>
       <c r="C7">
-        <v>7.490813194074971</v>
+        <v>11.87936399184226</v>
       </c>
       <c r="D7">
-        <v>12.83807525585408</v>
+        <v>7.97634060240298</v>
       </c>
       <c r="E7">
-        <v>12.53065502253439</v>
+        <v>7.555519108588769</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>62.62332805794729</v>
+        <v>49.28107256977855</v>
       </c>
       <c r="H7">
-        <v>22.72537569367446</v>
+        <v>15.29736758195975</v>
       </c>
       <c r="I7">
-        <v>35.20169229381116</v>
+        <v>24.34220065209172</v>
       </c>
       <c r="J7">
-        <v>7.801063578040206</v>
+        <v>5.190011381527535</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.27711394954098</v>
+        <v>7.949411341987636</v>
       </c>
       <c r="M7">
-        <v>19.83311374199132</v>
+        <v>13.08061070557553</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.23092996649845</v>
+        <v>20.50094000243922</v>
       </c>
       <c r="C8">
-        <v>7.9833850724055</v>
+        <v>13.08613703633312</v>
       </c>
       <c r="D8">
-        <v>12.81425517030226</v>
+        <v>8.083561068776142</v>
       </c>
       <c r="E8">
-        <v>12.50241978565299</v>
+        <v>7.485653999585297</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.71550275068529</v>
+        <v>51.02846483666792</v>
       </c>
       <c r="H8">
-        <v>22.67484417382032</v>
+        <v>15.47218688486827</v>
       </c>
       <c r="I8">
-        <v>35.10453460040974</v>
+        <v>24.50036466346251</v>
       </c>
       <c r="J8">
-        <v>7.818642016539829</v>
+        <v>5.252771023371214</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.25676064450275</v>
+        <v>8.077573032466926</v>
       </c>
       <c r="M8">
-        <v>19.879823126264</v>
+        <v>13.747175165713</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.91881941562163</v>
+        <v>23.54130211465513</v>
       </c>
       <c r="C9">
-        <v>8.882426193638848</v>
+        <v>15.21940778140919</v>
       </c>
       <c r="D9">
-        <v>12.78322718713144</v>
+        <v>8.329640868269731</v>
       </c>
       <c r="E9">
-        <v>12.45303024554167</v>
+        <v>7.35927538726208</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>63.02818761756927</v>
+        <v>54.73155043752287</v>
       </c>
       <c r="H9">
-        <v>22.60989092536351</v>
+        <v>15.91396087592096</v>
       </c>
       <c r="I9">
-        <v>34.96873661515928</v>
+        <v>24.98390535887067</v>
       </c>
       <c r="J9">
-        <v>7.851365397165297</v>
+        <v>5.374555135717387</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.23189296051088</v>
+        <v>8.359169517381117</v>
       </c>
       <c r="M9">
-        <v>19.9997392738207</v>
+        <v>15.03278119191759</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.43404326371508</v>
+        <v>25.74313764148164</v>
       </c>
       <c r="C10">
-        <v>9.495971081509785</v>
+        <v>16.65120211222625</v>
       </c>
       <c r="D10">
-        <v>12.76999830429415</v>
+        <v>8.533487666208552</v>
       </c>
       <c r="E10">
-        <v>12.4203574294197</v>
+        <v>7.272749022604144</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>63.33793689455374</v>
+        <v>57.61950579135075</v>
       </c>
       <c r="H10">
-        <v>22.58312595171897</v>
+        <v>16.30534853890486</v>
       </c>
       <c r="I10">
-        <v>34.90264618215532</v>
+        <v>25.45916165639217</v>
       </c>
       <c r="J10">
-        <v>7.874345715386405</v>
+        <v>5.463758683960354</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.22277823072478</v>
+        <v>8.585061676730634</v>
       </c>
       <c r="M10">
-        <v>20.10465982297801</v>
+        <v>15.95764360244602</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.66955314599954</v>
+        <v>26.7114370875827</v>
       </c>
       <c r="C11">
-        <v>9.76389343348168</v>
+        <v>17.27476798294302</v>
       </c>
       <c r="D11">
-        <v>12.76605734223747</v>
+        <v>8.631510322015917</v>
       </c>
       <c r="E11">
-        <v>12.40627167333168</v>
+        <v>7.234727158863384</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>63.49605629075417</v>
+        <v>58.97022133547429</v>
       </c>
       <c r="H11">
-        <v>22.57552621452525</v>
+        <v>16.49935088414792</v>
       </c>
       <c r="I11">
-        <v>34.87995457694138</v>
+        <v>25.70459481541027</v>
       </c>
       <c r="J11">
-        <v>7.884570449475121</v>
+        <v>5.504416962086434</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.22061468917521</v>
+        <v>8.6921032486895</v>
       </c>
       <c r="M11">
-        <v>20.15593403723379</v>
+        <v>16.3732208913441</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.75881404418953</v>
+        <v>27.07200114498886</v>
       </c>
       <c r="C12">
-        <v>9.86367528553737</v>
+        <v>17.50705322573755</v>
       </c>
       <c r="D12">
-        <v>12.76486344733931</v>
+        <v>8.669415498754027</v>
       </c>
       <c r="E12">
-        <v>12.40104902762288</v>
+        <v>7.220519521994595</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>63.55838625879366</v>
+        <v>59.48714371315818</v>
       </c>
       <c r="H12">
-        <v>22.57330800603722</v>
+        <v>16.57523416825438</v>
       </c>
       <c r="I12">
-        <v>34.87242650684172</v>
+        <v>25.80200956375939</v>
       </c>
       <c r="J12">
-        <v>7.888409369377845</v>
+        <v>5.519837783499511</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.22007992693212</v>
+        <v>8.733268486624587</v>
       </c>
       <c r="M12">
-        <v>20.17584978425611</v>
+        <v>16.52980700824601</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.73958794896699</v>
+        <v>26.99461596600264</v>
       </c>
       <c r="C13">
-        <v>9.842260895165646</v>
+        <v>17.45719498044387</v>
       </c>
       <c r="D13">
-        <v>12.76510730397604</v>
+        <v>8.66121654059919</v>
       </c>
       <c r="E13">
-        <v>12.40216887370126</v>
+        <v>7.223570955096628</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>63.5448536464286</v>
+        <v>59.37557070348045</v>
       </c>
       <c r="H13">
-        <v>22.57375637559966</v>
+        <v>16.55878170145326</v>
       </c>
       <c r="I13">
-        <v>34.87400038917567</v>
+        <v>25.78082610728225</v>
       </c>
       <c r="J13">
-        <v>7.887584055703775</v>
+        <v>5.516515319655361</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.22018245379593</v>
+        <v>8.724374471612711</v>
       </c>
       <c r="M13">
-        <v>20.17153853829282</v>
+        <v>16.49611867926417</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.67689559902898</v>
+        <v>26.74122228998498</v>
       </c>
       <c r="C14">
-        <v>9.772136448100689</v>
+        <v>17.29395440786066</v>
       </c>
       <c r="D14">
-        <v>12.76595313964065</v>
+        <v>8.634612892501089</v>
       </c>
       <c r="E14">
-        <v>12.40583977455995</v>
+        <v>7.23355448375477</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>63.50113517883794</v>
+        <v>59.01263893857207</v>
       </c>
       <c r="H14">
-        <v>22.57533049240548</v>
+        <v>16.5055446304812</v>
       </c>
       <c r="I14">
-        <v>34.8793138746461</v>
+        <v>25.71251791555268</v>
       </c>
       <c r="J14">
-        <v>7.884886940495536</v>
+        <v>5.505685071544232</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.22056499544146</v>
+        <v>8.695477192081533</v>
       </c>
       <c r="M14">
-        <v>20.15756257302596</v>
+        <v>16.38611919767475</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.63850246338419</v>
+        <v>26.5852211725635</v>
       </c>
       <c r="C15">
-        <v>9.728963342748411</v>
+        <v>17.19346863955692</v>
       </c>
       <c r="D15">
-        <v>12.76651009944156</v>
+        <v>8.618420569985707</v>
       </c>
       <c r="E15">
-        <v>12.40810279188277</v>
+        <v>7.239694418998972</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>63.47467517649517</v>
+        <v>58.79104555864348</v>
       </c>
       <c r="H15">
-        <v>22.5763806341706</v>
+        <v>16.47325421099156</v>
       </c>
       <c r="I15">
-        <v>34.88270732601207</v>
+        <v>25.67126812847425</v>
       </c>
       <c r="J15">
-        <v>7.883230586010647</v>
+        <v>5.499054830732266</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.22083634729926</v>
+        <v>8.677859455044814</v>
       </c>
       <c r="M15">
-        <v>20.14906659422347</v>
+        <v>16.31863837667575</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.41866766684394</v>
+        <v>25.67899208285737</v>
       </c>
       <c r="C16">
-        <v>9.478230762920177</v>
+        <v>16.60990415267303</v>
       </c>
       <c r="D16">
-        <v>12.77029763381332</v>
+        <v>8.527190218999285</v>
       </c>
       <c r="E16">
-        <v>12.42129356915428</v>
+        <v>7.275260602861885</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>63.32794802952603</v>
+        <v>57.53198571990276</v>
       </c>
       <c r="H16">
-        <v>22.58371483681562</v>
+        <v>16.29300157117975</v>
       </c>
       <c r="I16">
-        <v>34.90427789271649</v>
+        <v>25.44373317705945</v>
       </c>
       <c r="J16">
-        <v>7.873672892947897</v>
+        <v>5.461104233912937</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.2229594730121</v>
+        <v>8.578153634438117</v>
       </c>
       <c r="M16">
-        <v>20.10137939019259</v>
+        <v>15.9303767479062</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.28403551701279</v>
+        <v>25.1119756980585</v>
       </c>
       <c r="C17">
-        <v>9.321499397300027</v>
+        <v>16.24489514256747</v>
       </c>
       <c r="D17">
-        <v>12.77315300394437</v>
+        <v>8.472595651417265</v>
       </c>
       <c r="E17">
-        <v>12.42958444281527</v>
+        <v>7.297420759259107</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>63.24233018053439</v>
+        <v>56.76912311602759</v>
       </c>
       <c r="H17">
-        <v>22.5893873676048</v>
+        <v>16.18659553824071</v>
       </c>
       <c r="I17">
-        <v>34.91940251644923</v>
+        <v>25.31182479595111</v>
       </c>
       <c r="J17">
-        <v>7.867750861451432</v>
+        <v>5.437851735143548</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.22476938583304</v>
+        <v>8.518093716821198</v>
       </c>
       <c r="M17">
-        <v>20.0730256062322</v>
+        <v>15.69083327305517</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.20671016707046</v>
+        <v>24.7817191095776</v>
       </c>
       <c r="C18">
-        <v>9.230302326887978</v>
+        <v>16.03232868617178</v>
       </c>
       <c r="D18">
-        <v>12.77499084513848</v>
+        <v>8.441690720337695</v>
       </c>
       <c r="E18">
-        <v>12.43442632100259</v>
+        <v>7.310292890609375</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>63.1947067625448</v>
+        <v>56.3338131105867</v>
       </c>
       <c r="H18">
-        <v>22.59308067062052</v>
+        <v>16.12688785672674</v>
       </c>
       <c r="I18">
-        <v>34.92879556260197</v>
+        <v>25.23868971749649</v>
       </c>
       <c r="J18">
-        <v>7.864323100083766</v>
+        <v>5.424484076855652</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.22599707157015</v>
+        <v>8.483950789175106</v>
       </c>
       <c r="M18">
-        <v>20.05705163146407</v>
+        <v>15.55257075642587</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.18055088067363</v>
+        <v>24.66918677957098</v>
       </c>
       <c r="C19">
-        <v>9.19924655625727</v>
+        <v>15.95990260130152</v>
       </c>
       <c r="D19">
-        <v>12.77564668963878</v>
+        <v>8.431311385157054</v>
       </c>
       <c r="E19">
-        <v>12.43607828135168</v>
+        <v>7.314672916297455</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>63.17886141495155</v>
+        <v>56.18701793864857</v>
       </c>
       <c r="H19">
-        <v>22.59440506268962</v>
+        <v>16.10692484733539</v>
       </c>
       <c r="I19">
-        <v>34.93209489810533</v>
+        <v>25.21438915056105</v>
       </c>
       <c r="J19">
-        <v>7.863158815568857</v>
+        <v>5.419958777785459</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.22644482265786</v>
+        <v>8.47245921424968</v>
       </c>
       <c r="M19">
-        <v>20.05170085648105</v>
+        <v>15.50567616157253</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.29835641587486</v>
+        <v>25.17276118118614</v>
       </c>
       <c r="C20">
-        <v>9.338292838488444</v>
+        <v>16.28402141940679</v>
       </c>
       <c r="D20">
-        <v>12.77282881174008</v>
+        <v>8.478355786430903</v>
       </c>
       <c r="E20">
-        <v>12.42869429384463</v>
+        <v>7.295048728345987</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>63.25127665108469</v>
+        <v>56.8499715621533</v>
       </c>
       <c r="H20">
-        <v>22.58873893747052</v>
+        <v>16.19776711933912</v>
       </c>
       <c r="I20">
-        <v>34.91772063921773</v>
+        <v>25.32558167228061</v>
       </c>
       <c r="J20">
-        <v>7.868383503862421</v>
+        <v>5.440326235525784</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.22455740179148</v>
+        <v>8.524445499782088</v>
       </c>
       <c r="M20">
-        <v>20.07600938290478</v>
+        <v>15.71638351779233</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.69530839705594</v>
+        <v>26.81581448528759</v>
       </c>
       <c r="C21">
-        <v>9.792779619354288</v>
+        <v>17.34200524632611</v>
       </c>
       <c r="D21">
-        <v>12.76569659908864</v>
+        <v>8.642405476397183</v>
       </c>
       <c r="E21">
-        <v>12.40475852421781</v>
+        <v>7.230616928172791</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>63.51390995439999</v>
+        <v>59.11909191821157</v>
       </c>
       <c r="H21">
-        <v>22.5748502217275</v>
+        <v>16.52111497242662</v>
       </c>
       <c r="I21">
-        <v>34.87772424438479</v>
+        <v>25.73245803246061</v>
       </c>
       <c r="J21">
-        <v>7.885680043414564</v>
+        <v>5.508865401926585</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.22044491702325</v>
+        <v>8.703947760098472</v>
       </c>
       <c r="M21">
-        <v>20.16165418824723</v>
+        <v>16.4184502113244</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.95515877104501</v>
+        <v>27.85412881624525</v>
       </c>
       <c r="C22">
-        <v>10.08002924825255</v>
+        <v>18.01112277834486</v>
       </c>
       <c r="D22">
-        <v>12.76277478943448</v>
+        <v>8.754217870061773</v>
       </c>
       <c r="E22">
-        <v>12.38976379486862</v>
+        <v>7.189616029034701</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>63.69984462662306</v>
+        <v>60.63389327099343</v>
       </c>
       <c r="H22">
-        <v>22.56961863654962</v>
+        <v>16.74660441171672</v>
       </c>
       <c r="I22">
-        <v>34.85779226099267</v>
+        <v>26.0245916540127</v>
       </c>
       <c r="J22">
-        <v>7.896792177624759</v>
+        <v>5.553809502301059</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.21941525055531</v>
+        <v>8.824950440650802</v>
       </c>
       <c r="M22">
-        <v>20.22053311408443</v>
+        <v>16.87271967673342</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.81646075324307</v>
+        <v>27.30314741579831</v>
       </c>
       <c r="C23">
-        <v>9.927633102968626</v>
+        <v>17.6559934355083</v>
       </c>
       <c r="D23">
-        <v>12.76417513996533</v>
+        <v>8.694111675005141</v>
       </c>
       <c r="E23">
-        <v>12.39770755624755</v>
+        <v>7.211398186381267</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>63.5993085191459</v>
+        <v>59.82244430550562</v>
       </c>
       <c r="H23">
-        <v>22.57205849608692</v>
+        <v>16.62491720642208</v>
       </c>
       <c r="I23">
-        <v>34.86786092504083</v>
+        <v>25.86618282425287</v>
       </c>
       <c r="J23">
-        <v>7.890879010603285</v>
+        <v>5.529803461007584</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.21981331041486</v>
+        <v>8.760025523579163</v>
       </c>
       <c r="M23">
-        <v>20.18884613179702</v>
+        <v>16.63069363985414</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.29188169285505</v>
+        <v>25.14529338118481</v>
       </c>
       <c r="C24">
-        <v>9.330703914089629</v>
+        <v>16.26634090625673</v>
       </c>
       <c r="D24">
-        <v>12.77297476773642</v>
+        <v>8.475750129259515</v>
       </c>
       <c r="E24">
-        <v>12.42909649547558</v>
+        <v>7.29612071232046</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>63.24722696808701</v>
+        <v>56.81340980264496</v>
       </c>
       <c r="H24">
-        <v>22.58903074690684</v>
+        <v>16.19271188877321</v>
       </c>
       <c r="I24">
-        <v>34.91847884295084</v>
+        <v>25.31935379637261</v>
       </c>
       <c r="J24">
-        <v>7.868097558204569</v>
+        <v>5.439207513263926</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.22465265680781</v>
+        <v>8.521572656496424</v>
       </c>
       <c r="M24">
-        <v>20.07465939812948</v>
+        <v>15.70483394849307</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.73065377138619</v>
+        <v>22.74731002408583</v>
       </c>
       <c r="C25">
-        <v>8.647077753138593</v>
+        <v>14.666614982946</v>
       </c>
       <c r="D25">
-        <v>12.78994106596918</v>
+        <v>8.25911113917415</v>
       </c>
       <c r="E25">
-        <v>12.46575455068026</v>
+        <v>7.39234259049277</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>62.92950040733726</v>
+        <v>53.70040746272414</v>
       </c>
       <c r="H25">
-        <v>22.6237918085262</v>
+        <v>15.78318938972536</v>
       </c>
       <c r="I25">
-        <v>34.99958054725432</v>
+        <v>24.83306992540608</v>
       </c>
       <c r="J25">
-        <v>7.842699554496314</v>
+        <v>5.341698189128394</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.23701099610057</v>
+        <v>8.279696321478326</v>
       </c>
       <c r="M25">
-        <v>19.96431034052842</v>
+        <v>14.68805976898999</v>
       </c>
       <c r="N25">
         <v>0</v>
